--- a/biology/Botanique/Aneuraceae/Aneuraceae.xlsx
+++ b/biology/Botanique/Aneuraceae/Aneuraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aneuraceae (parfois Riccardiaceae) est une famille d’hépatiques de l'ordre des Metzgeriales.
 Cette famille comporte quatre genres, dont trois venant d'Europe[réf. nécessaire].
@@ -516,31 +528,33 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 août 2018) :
 genre Aneura Dumort.
 genre Cryptothallus Malmb.
 genre Riccardia Gray
-Selon Catalogue of Life                                   (5 août 2018)[3] :
+Selon Catalogue of Life                                   (5 août 2018) :
 genre Afroriccardia
 genre Aneura
 genre Lobatiriccardia
 genre Riccardia
 genre Riccardiothallus †
 genre Verdoornia
-Selon ITIS      (5 août 2018)[4] :
+Selon ITIS      (5 août 2018) :
 genre Aneura Dumort.
 genre Lobatiriccardia (Mizut. &amp; S. Hatt.) Furuki
 genre Riccardia Gray
 genre Verdoornia R.M. Schust.
-Selon NCBI  (5 août 2018)[5] :
+Selon NCBI  (5 août 2018) :
 genre Afroriccardia Reeb &amp; Gradst., 2017
 genre Aneura Dumort.
 genre Lobatiriccardia (Mizut. &amp; S.Hatt.) Furuki
 genre Riccardia Gray
 genre Verdoornia
-Selon Tropicos                                           (5 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 genre Acrostolia Dumort.
 genre Afroriccardia Reeb &amp; Gradst.
 genre Aneura Dumort.
